--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>41.0230958798124</v>
+        <v>0.227933</v>
       </c>
       <c r="H2">
-        <v>41.0230958798124</v>
+        <v>0.683799</v>
       </c>
       <c r="I2">
-        <v>0.978473787320141</v>
+        <v>0.005274728560320285</v>
       </c>
       <c r="J2">
-        <v>0.978473787320141</v>
+        <v>0.005274728560320286</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.6476651354505</v>
+        <v>73.19890333333333</v>
       </c>
       <c r="N2">
-        <v>39.6476651354505</v>
+        <v>219.59671</v>
       </c>
       <c r="O2">
-        <v>0.5143171353280561</v>
+        <v>0.6596328743217019</v>
       </c>
       <c r="P2">
-        <v>0.5143171353280561</v>
+        <v>0.6596328743217019</v>
       </c>
       <c r="Q2">
-        <v>1626.469968262281</v>
+        <v>16.68444563347667</v>
       </c>
       <c r="R2">
-        <v>1626.469968262281</v>
+        <v>150.16001070129</v>
       </c>
       <c r="S2">
-        <v>0.5032458352880885</v>
+        <v>0.003479384361510842</v>
       </c>
       <c r="T2">
-        <v>0.5032458352880885</v>
+        <v>0.003479384361510843</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>41.0230958798124</v>
+        <v>0.227933</v>
       </c>
       <c r="H3">
-        <v>41.0230958798124</v>
+        <v>0.683799</v>
       </c>
       <c r="I3">
-        <v>0.978473787320141</v>
+        <v>0.005274728560320285</v>
       </c>
       <c r="J3">
-        <v>0.978473787320141</v>
+        <v>0.005274728560320286</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.56537544410517</v>
+        <v>9.661646333333335</v>
       </c>
       <c r="N3">
-        <v>9.56537544410517</v>
+        <v>28.984939</v>
       </c>
       <c r="O3">
-        <v>0.1240838894280982</v>
+        <v>0.08706605224007774</v>
       </c>
       <c r="P3">
-        <v>0.1240838894280982</v>
+        <v>0.08706605224007773</v>
       </c>
       <c r="Q3">
-        <v>392.4013139699295</v>
+        <v>2.202208033695667</v>
       </c>
       <c r="R3">
-        <v>392.4013139699295</v>
+        <v>19.819872303261</v>
       </c>
       <c r="S3">
-        <v>0.1214128332341248</v>
+        <v>0.000459249792385076</v>
       </c>
       <c r="T3">
-        <v>0.1214128332341248</v>
+        <v>0.000459249792385076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>41.0230958798124</v>
+        <v>0.227933</v>
       </c>
       <c r="H4">
-        <v>41.0230958798124</v>
+        <v>0.683799</v>
       </c>
       <c r="I4">
-        <v>0.978473787320141</v>
+        <v>0.005274728560320285</v>
       </c>
       <c r="J4">
-        <v>0.978473787320141</v>
+        <v>0.005274728560320286</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.8749318251773</v>
+        <v>28.10860633333333</v>
       </c>
       <c r="N4">
-        <v>27.8749318251773</v>
+        <v>84.325819</v>
       </c>
       <c r="O4">
-        <v>0.3615989752438457</v>
+        <v>0.2533010734382203</v>
       </c>
       <c r="P4">
-        <v>0.3615989752438457</v>
+        <v>0.2533010734382204</v>
       </c>
       <c r="Q4">
-        <v>1143.516000907483</v>
+        <v>6.406878967375667</v>
       </c>
       <c r="R4">
-        <v>1143.516000907483</v>
+        <v>57.661910706381</v>
       </c>
       <c r="S4">
-        <v>0.3538151187979276</v>
+        <v>0.001336094406424367</v>
       </c>
       <c r="T4">
-        <v>0.3538151187979276</v>
+        <v>0.001336094406424367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.902499278098867</v>
+        <v>42.071953</v>
       </c>
       <c r="H5">
-        <v>0.902499278098867</v>
+        <v>126.215859</v>
       </c>
       <c r="I5">
-        <v>0.02152621267985906</v>
+        <v>0.9736112457500787</v>
       </c>
       <c r="J5">
-        <v>0.02152621267985906</v>
+        <v>0.9736112457500787</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.6476651354505</v>
+        <v>73.19890333333333</v>
       </c>
       <c r="N5">
-        <v>39.6476651354505</v>
+        <v>219.59671</v>
       </c>
       <c r="O5">
-        <v>0.5143171353280561</v>
+        <v>0.6596328743217019</v>
       </c>
       <c r="P5">
-        <v>0.5143171353280561</v>
+        <v>0.6596328743217019</v>
       </c>
       <c r="Q5">
-        <v>35.78198916304969</v>
+        <v>3079.620820691543</v>
       </c>
       <c r="R5">
-        <v>35.78198916304969</v>
+        <v>27716.58738622389</v>
       </c>
       <c r="S5">
-        <v>0.01107130003996759</v>
+        <v>0.6422259845060573</v>
       </c>
       <c r="T5">
-        <v>0.01107130003996759</v>
+        <v>0.6422259845060573</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.902499278098867</v>
+        <v>42.071953</v>
       </c>
       <c r="H6">
-        <v>0.902499278098867</v>
+        <v>126.215859</v>
       </c>
       <c r="I6">
-        <v>0.02152621267985906</v>
+        <v>0.9736112457500787</v>
       </c>
       <c r="J6">
-        <v>0.02152621267985906</v>
+        <v>0.9736112457500787</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.56537544410517</v>
+        <v>9.661646333333335</v>
       </c>
       <c r="N6">
-        <v>9.56537544410517</v>
+        <v>28.984939</v>
       </c>
       <c r="O6">
-        <v>0.1240838894280982</v>
+        <v>0.08706605224007774</v>
       </c>
       <c r="P6">
-        <v>0.1240838894280982</v>
+        <v>0.08706605224007773</v>
       </c>
       <c r="Q6">
-        <v>8.632744433049545</v>
+        <v>406.4843304386224</v>
       </c>
       <c r="R6">
-        <v>8.632744433049545</v>
+        <v>3658.358973947601</v>
       </c>
       <c r="S6">
-        <v>0.002671056193973356</v>
+        <v>0.08476848758400352</v>
       </c>
       <c r="T6">
-        <v>0.002671056193973356</v>
+        <v>0.0847684875840035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>42.071953</v>
+      </c>
+      <c r="H7">
+        <v>126.215859</v>
+      </c>
+      <c r="I7">
+        <v>0.9736112457500787</v>
+      </c>
+      <c r="J7">
+        <v>0.9736112457500787</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>28.10860633333333</v>
+      </c>
+      <c r="N7">
+        <v>84.325819</v>
+      </c>
+      <c r="O7">
+        <v>0.2533010734382203</v>
+      </c>
+      <c r="P7">
+        <v>0.2533010734382204</v>
+      </c>
+      <c r="Q7">
+        <v>1182.583964551502</v>
+      </c>
+      <c r="R7">
+        <v>10643.25568096352</v>
+      </c>
+      <c r="S7">
+        <v>0.2466167736600179</v>
+      </c>
+      <c r="T7">
+        <v>0.2466167736600179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.912385</v>
+      </c>
+      <c r="H8">
+        <v>2.737155</v>
+      </c>
+      <c r="I8">
+        <v>0.02111402568960099</v>
+      </c>
+      <c r="J8">
+        <v>0.021114025689601</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>73.19890333333333</v>
+      </c>
+      <c r="N8">
+        <v>219.59671</v>
+      </c>
+      <c r="O8">
+        <v>0.6596328743217019</v>
+      </c>
+      <c r="P8">
+        <v>0.6596328743217019</v>
+      </c>
+      <c r="Q8">
+        <v>66.78558141778333</v>
+      </c>
+      <c r="R8">
+        <v>601.07023276005</v>
+      </c>
+      <c r="S8">
+        <v>0.01392750545413376</v>
+      </c>
+      <c r="T8">
+        <v>0.01392750545413376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.902499278098867</v>
-      </c>
-      <c r="H7">
-        <v>0.902499278098867</v>
-      </c>
-      <c r="I7">
-        <v>0.02152621267985906</v>
-      </c>
-      <c r="J7">
-        <v>0.02152621267985906</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>27.8749318251773</v>
-      </c>
-      <c r="N7">
-        <v>27.8749318251773</v>
-      </c>
-      <c r="O7">
-        <v>0.3615989752438457</v>
-      </c>
-      <c r="P7">
-        <v>0.3615989752438457</v>
-      </c>
-      <c r="Q7">
-        <v>25.15710584927765</v>
-      </c>
-      <c r="R7">
-        <v>25.15710584927765</v>
-      </c>
-      <c r="S7">
-        <v>0.007783856445918113</v>
-      </c>
-      <c r="T7">
-        <v>0.007783856445918113</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.912385</v>
+      </c>
+      <c r="H9">
+        <v>2.737155</v>
+      </c>
+      <c r="I9">
+        <v>0.02111402568960099</v>
+      </c>
+      <c r="J9">
+        <v>0.021114025689601</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.661646333333335</v>
+      </c>
+      <c r="N9">
+        <v>28.984939</v>
+      </c>
+      <c r="O9">
+        <v>0.08706605224007774</v>
+      </c>
+      <c r="P9">
+        <v>0.08706605224007773</v>
+      </c>
+      <c r="Q9">
+        <v>8.815141189838336</v>
+      </c>
+      <c r="R9">
+        <v>79.33627070854502</v>
+      </c>
+      <c r="S9">
+        <v>0.001838314863689143</v>
+      </c>
+      <c r="T9">
+        <v>0.001838314863689143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.912385</v>
+      </c>
+      <c r="H10">
+        <v>2.737155</v>
+      </c>
+      <c r="I10">
+        <v>0.02111402568960099</v>
+      </c>
+      <c r="J10">
+        <v>0.021114025689601</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>28.10860633333333</v>
+      </c>
+      <c r="N10">
+        <v>84.325819</v>
+      </c>
+      <c r="O10">
+        <v>0.2533010734382203</v>
+      </c>
+      <c r="P10">
+        <v>0.2533010734382204</v>
+      </c>
+      <c r="Q10">
+        <v>25.64587078943833</v>
+      </c>
+      <c r="R10">
+        <v>230.812837104945</v>
+      </c>
+      <c r="S10">
+        <v>0.005348205371778092</v>
+      </c>
+      <c r="T10">
+        <v>0.005348205371778094</v>
       </c>
     </row>
   </sheetData>
